--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,23 +195,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・276・277例目（計16件）は市外在住者です。</t>
-    <rPh sb="59" eb="60">
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・276・277・285例目（計17件）は市外在住者です。</t>
+    <rPh sb="63" eb="64">
       <t>レイ</t>
     </rPh>
-    <rPh sb="60" eb="61">
+    <rPh sb="64" eb="65">
       <t>メ</t>
     </rPh>
-    <rPh sb="62" eb="63">
+    <rPh sb="66" eb="67">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="65" eb="66">
+    <rPh sb="69" eb="70">
       <t>ケン</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="72" eb="74">
       <t>シガイ</t>
     </rPh>
-    <rPh sb="70" eb="73">
+    <rPh sb="74" eb="77">
       <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,12 +277,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,9 +319,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,10 +894,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="3">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F10" s="3">
         <v>8</v>
@@ -885,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -899,10 +920,10 @@
         <v>149</v>
       </c>
       <c r="D11" s="2">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -911,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -925,10 +946,10 @@
         <v>156</v>
       </c>
       <c r="D12" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2">
         <v>8</v>
@@ -937,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -951,10 +972,10 @@
         <v>175</v>
       </c>
       <c r="D13" s="1">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -963,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -977,10 +998,10 @@
         <v>176</v>
       </c>
       <c r="D14" s="3">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3">
         <v>8</v>
@@ -989,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1003,10 +1024,10 @@
         <v>195</v>
       </c>
       <c r="D15" s="3">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F15" s="3">
         <v>10</v>
@@ -1015,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1029,10 +1050,10 @@
         <v>206</v>
       </c>
       <c r="D16" s="3">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
@@ -1041,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1055,10 +1076,10 @@
         <v>220</v>
       </c>
       <c r="D17" s="3">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E17" s="3">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
@@ -1067,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1081,10 +1102,10 @@
         <v>219</v>
       </c>
       <c r="D18" s="3">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E18" s="3">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -1093,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1107,10 +1128,10 @@
         <v>223</v>
       </c>
       <c r="D19" s="3">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F19" s="3">
         <v>10</v>
@@ -1119,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1133,10 +1154,10 @@
         <v>224</v>
       </c>
       <c r="D20" s="3">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1145,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1156,13 +1177,13 @@
         <v>254</v>
       </c>
       <c r="C21" s="4">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D21" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E21" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F21" s="3">
         <v>9</v>
@@ -1171,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1182,13 +1203,13 @@
         <v>256</v>
       </c>
       <c r="C22" s="4">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D22" s="3">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E22" s="3">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -1197,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1208,13 +1229,13 @@
         <v>258</v>
       </c>
       <c r="C23" s="4">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D23" s="3">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E23" s="3">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3">
         <v>13</v>
@@ -1223,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1234,13 +1255,13 @@
         <v>260</v>
       </c>
       <c r="C24" s="4">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D24" s="3">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E24" s="3">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3">
         <v>13</v>
@@ -1249,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1260,13 +1281,13 @@
         <v>260</v>
       </c>
       <c r="C25" s="4">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D25" s="3">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3">
         <v>12</v>
@@ -1275,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1286,13 +1307,13 @@
         <v>266</v>
       </c>
       <c r="C26" s="3">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D26" s="3">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3">
         <v>11</v>
@@ -1301,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1312,13 +1333,13 @@
         <v>266</v>
       </c>
       <c r="C27" s="3">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D27" s="3">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3">
         <v>10</v>
@@ -1327,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1338,13 +1359,13 @@
         <v>270</v>
       </c>
       <c r="C28" s="3">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D28" s="3">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E28" s="3">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3">
         <v>10</v>
@@ -1353,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1364,13 +1385,13 @@
         <v>272</v>
       </c>
       <c r="C29" s="3">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D29" s="3">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <v>10</v>
@@ -1379,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="3">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1390,7 +1411,7 @@
         <v>273</v>
       </c>
       <c r="C30" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3">
         <v>79</v>
@@ -1405,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1416,13 +1437,13 @@
         <v>273</v>
       </c>
       <c r="C31" s="3">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D31" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3">
         <v>10</v>
@@ -1431,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1442,13 +1463,13 @@
         <v>276</v>
       </c>
       <c r="C32" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D32" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F32" s="3">
         <v>10</v>
@@ -1457,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1468,13 +1489,13 @@
         <v>277</v>
       </c>
       <c r="C33" s="3">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D33" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E33" s="3">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3">
         <v>11</v>
@@ -1483,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1494,13 +1515,13 @@
         <v>278</v>
       </c>
       <c r="C34" s="3">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D34" s="3">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F34" s="3">
         <v>11</v>
@@ -1509,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1520,13 +1541,13 @@
         <v>278</v>
       </c>
       <c r="C35" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" s="3">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -1535,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="3">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1543,16 +1564,16 @@
         <v>43964</v>
       </c>
       <c r="B36" s="4">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C36" s="3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D36" s="3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
@@ -1561,11 +1582,297 @@
         <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B37" s="4">
+        <v>281</v>
+      </c>
+      <c r="C37" s="3">
+        <v>279</v>
+      </c>
+      <c r="D37" s="3">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B38" s="4">
+        <v>281</v>
+      </c>
+      <c r="C38" s="3">
+        <v>280</v>
+      </c>
+      <c r="D38" s="3">
+        <v>46</v>
+      </c>
+      <c r="E38" s="3">
+        <v>36</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B39" s="4">
+        <v>282</v>
+      </c>
+      <c r="C39" s="3">
+        <v>280</v>
+      </c>
+      <c r="D39" s="3">
+        <v>42</v>
+      </c>
+      <c r="E39" s="3">
+        <v>35</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B40" s="4">
+        <v>283</v>
+      </c>
+      <c r="C40" s="3">
+        <v>281</v>
+      </c>
+      <c r="D40" s="3">
+        <v>42</v>
+      </c>
+      <c r="E40" s="3">
+        <v>35</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11</v>
+      </c>
+      <c r="H40" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B41" s="4">
+        <v>283</v>
+      </c>
+      <c r="C41" s="3">
+        <v>281</v>
+      </c>
+      <c r="D41" s="3">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3">
+        <v>34</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>43970</v>
+      </c>
+      <c r="B42" s="4">
+        <v>283</v>
+      </c>
+      <c r="C42" s="3">
+        <v>281</v>
+      </c>
+      <c r="D42" s="3">
+        <v>39</v>
+      </c>
+      <c r="E42" s="3">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>43971</v>
+      </c>
+      <c r="B43" s="4">
+        <v>283</v>
+      </c>
+      <c r="C43" s="3">
+        <v>281</v>
+      </c>
+      <c r="D43" s="3">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B44" s="12">
+        <v>285</v>
+      </c>
+      <c r="C44" s="11">
+        <v>282</v>
+      </c>
+      <c r="D44" s="11">
+        <v>37</v>
+      </c>
+      <c r="E44" s="11">
+        <v>32</v>
+      </c>
+      <c r="F44" s="11">
+        <v>5</v>
+      </c>
+      <c r="G44" s="11">
+        <v>11</v>
+      </c>
+      <c r="H44" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B45" s="12">
+        <v>285</v>
+      </c>
+      <c r="C45" s="11">
+        <v>282</v>
+      </c>
+      <c r="D45" s="11">
+        <v>36</v>
+      </c>
+      <c r="E45" s="11">
+        <v>32</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4</v>
+      </c>
+      <c r="G45" s="11">
+        <v>12</v>
+      </c>
+      <c r="H45" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B46" s="12">
+        <v>285</v>
+      </c>
+      <c r="C46" s="11">
+        <v>282</v>
+      </c>
+      <c r="D46" s="11">
+        <v>32</v>
+      </c>
+      <c r="E46" s="11">
+        <v>28</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B47" s="12">
+        <v>285</v>
+      </c>
+      <c r="C47" s="11">
+        <v>282</v>
+      </c>
+      <c r="D47" s="11">
+        <v>30</v>
+      </c>
+      <c r="E47" s="11">
+        <v>26</v>
+      </c>
+      <c r="F47" s="11">
+        <v>4</v>
+      </c>
+      <c r="G47" s="11">
+        <v>12</v>
+      </c>
+      <c r="H47" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1582,13 +1889,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2661,10 +2968,10 @@
         <v>24</v>
       </c>
       <c r="F41" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="4">
         <v>2</v>
@@ -2673,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -2725,10 +3032,10 @@
         <v>25</v>
       </c>
       <c r="F43" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4">
         <v>2</v>
@@ -2737,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -2789,10 +3096,10 @@
         <v>31</v>
       </c>
       <c r="F45" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -2801,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -2885,11 +3192,11 @@
         <v>33</v>
       </c>
       <c r="F48" s="2">
+        <v>15</v>
+      </c>
+      <c r="G48" s="4">
         <v>13</v>
       </c>
-      <c r="G48" s="4">
-        <v>11</v>
-      </c>
       <c r="H48" s="4">
         <v>2</v>
       </c>
@@ -2897,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2949,10 +3256,10 @@
         <v>37</v>
       </c>
       <c r="F50" s="2">
+        <v>16</v>
+      </c>
+      <c r="G50" s="4">
         <v>14</v>
-      </c>
-      <c r="G50" s="4">
-        <v>12</v>
       </c>
       <c r="H50" s="4">
         <v>2</v>
@@ -3013,10 +3320,10 @@
         <v>43</v>
       </c>
       <c r="F52" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="4">
         <v>2</v>
@@ -3046,10 +3353,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G53" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H53" s="4">
         <v>3</v>
@@ -3079,10 +3386,10 @@
         <v>56</v>
       </c>
       <c r="F54" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H54" s="4">
         <v>4</v>
@@ -3112,10 +3419,10 @@
         <v>68</v>
       </c>
       <c r="F55" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" s="4">
         <v>37</v>
-      </c>
-      <c r="G55" s="4">
-        <v>33</v>
       </c>
       <c r="H55" s="4">
         <v>4</v>
@@ -3145,10 +3452,10 @@
         <v>78</v>
       </c>
       <c r="F56" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H56" s="4">
         <v>4</v>
@@ -3178,10 +3485,10 @@
         <v>90</v>
       </c>
       <c r="F57" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G57" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H57" s="4">
         <v>4</v>
@@ -3244,10 +3551,10 @@
         <v>120</v>
       </c>
       <c r="F59" s="4">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G59" s="4">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H59" s="4">
         <v>4</v>
@@ -3277,10 +3584,10 @@
         <v>127</v>
       </c>
       <c r="F60" s="4">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G60" s="4">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H60" s="4">
         <v>4</v>
@@ -3289,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3310,10 +3617,10 @@
         <v>135</v>
       </c>
       <c r="F61" s="4">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G61" s="4">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H61" s="4">
         <v>7</v>
@@ -3322,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3343,10 +3650,10 @@
         <v>142</v>
       </c>
       <c r="F62" s="4">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G62" s="4">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H62" s="4">
         <v>6</v>
@@ -3355,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -3376,10 +3683,10 @@
         <v>155</v>
       </c>
       <c r="F63" s="4">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G63" s="4">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H63" s="4">
         <v>6</v>
@@ -3388,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -3409,10 +3716,10 @@
         <v>161</v>
       </c>
       <c r="F64" s="4">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G64" s="4">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H64" s="4">
         <v>6</v>
@@ -3421,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -3443,10 +3750,10 @@
         <v>173</v>
       </c>
       <c r="F65" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G65" s="3">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H65" s="3">
         <v>7</v>
@@ -3455,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -3476,10 +3783,10 @@
         <v>182</v>
       </c>
       <c r="F66" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G66" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H66" s="2">
         <v>7</v>
@@ -3488,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -3509,10 +3816,10 @@
         <v>185</v>
       </c>
       <c r="F67" s="2">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G67" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H67" s="2">
         <v>7</v>
@@ -3521,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -3542,10 +3849,10 @@
         <v>193</v>
       </c>
       <c r="F68" s="2">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G68" s="2">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H68" s="2">
         <v>6</v>
@@ -3554,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="J68" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -3575,10 +3882,10 @@
         <v>207</v>
       </c>
       <c r="F69" s="2">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G69" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H69" s="2">
         <v>7</v>
@@ -3587,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="J69" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -3608,10 +3915,10 @@
         <v>218</v>
       </c>
       <c r="F70" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G70" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2">
         <v>9</v>
@@ -3620,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -3641,10 +3948,10 @@
         <v>240</v>
       </c>
       <c r="F71" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G71" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H71" s="2">
         <v>9</v>
@@ -3653,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -3673,10 +3980,10 @@
         <v>245</v>
       </c>
       <c r="F72" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G72" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H72" s="2">
         <v>9</v>
@@ -3685,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -3705,10 +4012,10 @@
         <v>251</v>
       </c>
       <c r="F73" s="2">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G73" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H73" s="2">
         <v>9</v>
@@ -3717,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -3737,10 +4044,10 @@
         <v>251</v>
       </c>
       <c r="F74" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G74" s="2">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H74" s="2">
         <v>9</v>
@@ -3749,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="2">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -3769,10 +4076,10 @@
         <v>253</v>
       </c>
       <c r="F75" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G75" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H75" s="2">
         <v>9</v>
@@ -3781,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="2">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3801,10 +4108,10 @@
         <v>256</v>
       </c>
       <c r="F76" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G76" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H76" s="2">
         <v>8</v>
@@ -3813,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="2">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -3833,10 +4140,10 @@
         <v>257</v>
       </c>
       <c r="F77" s="2">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G77" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H77" s="2">
         <v>9</v>
@@ -3845,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="2">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -3865,10 +4172,10 @@
         <v>258</v>
       </c>
       <c r="F78" s="2">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G78" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H78" s="2">
         <v>12</v>
@@ -3877,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -3897,10 +4204,10 @@
         <v>260</v>
       </c>
       <c r="F79" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G79" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H79" s="2">
         <v>12</v>
@@ -3909,7 +4216,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="2">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -3929,10 +4236,10 @@
         <v>263</v>
       </c>
       <c r="F80" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G80" s="2">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H80" s="2">
         <v>11</v>
@@ -3941,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -3961,10 +4268,10 @@
         <v>266</v>
       </c>
       <c r="F81" s="2">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G81" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H81" s="2">
         <v>10</v>
@@ -3973,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -3990,13 +4297,13 @@
         <v>2</v>
       </c>
       <c r="E82" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F82" s="2">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G82" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H82" s="2">
         <v>9</v>
@@ -4005,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -4025,10 +4332,10 @@
         <v>270</v>
       </c>
       <c r="F83" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G83" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2">
         <v>9</v>
@@ -4037,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -4057,10 +4364,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="4">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G84" s="4">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H84" s="4">
         <v>9</v>
@@ -4069,7 +4376,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="4">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -4101,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -4121,10 +4428,10 @@
         <v>276</v>
       </c>
       <c r="F86" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G86" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H86" s="4">
         <v>9</v>
@@ -4133,7 +4440,7 @@
         <v>8</v>
       </c>
       <c r="J86" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -4153,10 +4460,10 @@
         <v>277</v>
       </c>
       <c r="F87" s="4">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G87" s="4">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H87" s="4">
         <v>9</v>
@@ -4165,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="4">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -4185,10 +4492,10 @@
         <v>278</v>
       </c>
       <c r="F88" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G88" s="4">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H88" s="4">
         <v>10</v>
@@ -4197,7 +4504,7 @@
         <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -4217,10 +4524,10 @@
         <v>278</v>
       </c>
       <c r="F89" s="4">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G89" s="4">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
@@ -4229,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="J89" s="4">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -4249,10 +4556,10 @@
         <v>279</v>
       </c>
       <c r="F90" s="4">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G90" s="4">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H90" s="4">
         <v>10</v>
@@ -4261,7 +4568,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="4">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -4281,10 +4588,10 @@
         <v>281</v>
       </c>
       <c r="F91" s="4">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G91" s="4">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H91" s="4">
         <v>9</v>
@@ -4293,11 +4600,363 @@
         <v>11</v>
       </c>
       <c r="J91" s="4">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B92" s="4">
+        <v>28</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2771</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>281</v>
+      </c>
+      <c r="F92" s="4">
+        <v>44</v>
+      </c>
+      <c r="G92" s="4">
+        <v>35</v>
+      </c>
+      <c r="H92" s="4">
+        <v>9</v>
+      </c>
+      <c r="I92" s="4">
+        <v>11</v>
+      </c>
+      <c r="J92" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B93" s="4">
+        <v>42</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2813</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>282</v>
+      </c>
+      <c r="F93" s="4">
+        <v>41</v>
+      </c>
+      <c r="G93" s="4">
+        <v>32</v>
+      </c>
+      <c r="H93" s="4">
+        <v>9</v>
+      </c>
+      <c r="I93" s="4">
+        <v>11</v>
+      </c>
+      <c r="J93" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B94" s="4">
+        <v>27</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2840</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>283</v>
+      </c>
+      <c r="F94" s="4">
+        <v>37</v>
+      </c>
+      <c r="G94" s="4">
+        <v>31</v>
+      </c>
+      <c r="H94" s="4">
+        <v>6</v>
+      </c>
+      <c r="I94" s="4">
+        <v>11</v>
+      </c>
+      <c r="J94" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B95" s="4">
+        <v>25</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2865</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>283</v>
+      </c>
+      <c r="F95" s="4">
+        <v>37</v>
+      </c>
+      <c r="G95" s="4">
+        <v>31</v>
+      </c>
+      <c r="H95" s="4">
+        <v>6</v>
+      </c>
+      <c r="I95" s="4">
+        <v>11</v>
+      </c>
+      <c r="J95" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B96" s="4">
+        <v>31</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2896</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>283</v>
+      </c>
+      <c r="F96" s="4">
+        <v>36</v>
+      </c>
+      <c r="G96" s="4">
+        <v>30</v>
+      </c>
+      <c r="H96" s="4">
+        <v>6</v>
+      </c>
+      <c r="I96" s="4">
+        <v>11</v>
+      </c>
+      <c r="J96" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>43970</v>
+      </c>
+      <c r="B97" s="4">
+        <v>26</v>
+      </c>
+      <c r="C97" s="4">
+        <v>2922</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>283</v>
+      </c>
+      <c r="F97" s="4">
+        <v>34</v>
+      </c>
+      <c r="G97" s="4">
+        <v>30</v>
+      </c>
+      <c r="H97" s="4">
+        <v>4</v>
+      </c>
+      <c r="I97" s="4">
+        <v>11</v>
+      </c>
+      <c r="J97" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>43971</v>
+      </c>
+      <c r="B98" s="12">
+        <v>34</v>
+      </c>
+      <c r="C98" s="12">
+        <v>2956</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2</v>
+      </c>
+      <c r="E98" s="12">
+        <v>285</v>
+      </c>
+      <c r="F98" s="12">
+        <v>34</v>
+      </c>
+      <c r="G98" s="12">
+        <v>30</v>
+      </c>
+      <c r="H98" s="12">
+        <v>4</v>
+      </c>
+      <c r="I98" s="12">
+        <v>11</v>
+      </c>
+      <c r="J98" s="12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B99" s="12">
+        <v>31</v>
+      </c>
+      <c r="C99" s="12">
+        <v>2987</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>285</v>
+      </c>
+      <c r="F99" s="12">
+        <v>32</v>
+      </c>
+      <c r="G99" s="12">
+        <v>28</v>
+      </c>
+      <c r="H99" s="12">
+        <v>4</v>
+      </c>
+      <c r="I99" s="12">
+        <v>11</v>
+      </c>
+      <c r="J99" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B100" s="12">
+        <v>23</v>
+      </c>
+      <c r="C100" s="12">
+        <v>3010</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <v>285</v>
+      </c>
+      <c r="F100" s="12">
+        <v>31</v>
+      </c>
+      <c r="G100" s="12">
+        <v>28</v>
+      </c>
+      <c r="H100" s="12">
+        <v>3</v>
+      </c>
+      <c r="I100" s="12">
+        <v>12</v>
+      </c>
+      <c r="J100" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B101" s="12">
+        <v>11</v>
+      </c>
+      <c r="C101" s="12">
+        <v>3021</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <v>285</v>
+      </c>
+      <c r="F101" s="12">
+        <v>27</v>
+      </c>
+      <c r="G101" s="12">
+        <v>24</v>
+      </c>
+      <c r="H101" s="12">
+        <v>3</v>
+      </c>
+      <c r="I101" s="12">
+        <v>12</v>
+      </c>
+      <c r="J101" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0</v>
+      </c>
+      <c r="C102" s="12">
+        <v>3021</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>285</v>
+      </c>
+      <c r="F102" s="12">
+        <v>27</v>
+      </c>
+      <c r="G102" s="12">
+        <v>24</v>
+      </c>
+      <c r="H102" s="12">
+        <v>3</v>
+      </c>
+      <c r="I102" s="12">
+        <v>12</v>
+      </c>
+      <c r="J102" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B103" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4313,13 +4972,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6013,7 +6672,293 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>43970</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13">
+        <v>43971</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="12">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5</v>
+      </c>
+      <c r="E74" s="12">
+        <v>4</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5</v>
+      </c>
+      <c r="E75" s="12">
+        <v>4</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="12">
+        <v>4</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2</v>
+      </c>
+      <c r="F77" s="12">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
     </row>
